--- a/Design/Pack/打包图.xlsx
+++ b/Design/Pack/打包图.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Root</t>
   </si>
@@ -74,7 +74,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Actions\蒲公英序列帧\上劈</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\上升</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\下落</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\冲刺升空斩</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\后空翻踢</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻1</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻2</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻3</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻4</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面被击飞到落地瞬间</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面被定身</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\待机</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\折跃瞬移攻击前段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\折跃瞬移攻击后段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\斜向瞬移前段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\斜向瞬移后段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\水平瞬移前段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\水平瞬移后段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\移动</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻1</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻2循环</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻2起手</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻3</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中被击飞空中落地瞬间</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中被击飞被击飞</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中转身下劈</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\落地</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\被击飞落地瞬间后动作</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\起跳</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈地面起跳攻击</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈空中下劈下落过程</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈空中下劈落地</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈空中下劈起手</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\飞踢空中</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\飞踢落地</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>输出后的大图路径，输出文件可带后缀，不带后缀默认为t2d，不填则在图片目录并于首个目录同名；'/'结尾则视为目录，不组合大图（Power2将失效），主要作为仅裁切图片时使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -511,28 +621,531 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1" t="str">
+        <f>B4&amp;".png"</f>
+        <v>Actions\蒲公英序列帧\上劈.png</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" ref="F5:F38" si="0">B5&amp;".png"</f>
+        <v>Actions\蒲公英序列帧\上升.png</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\下落.png</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\冲刺升空斩.png</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\后空翻踢.png</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\地面普攻1.png</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\地面普攻2.png</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\地面普攻3.png</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\地面普攻4.png</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\地面被击飞到落地瞬间.png</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\地面被定身.png</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\待机.png</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\折跃瞬移攻击前段.png</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\折跃瞬移攻击后段.png</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\斜向瞬移前段.png</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\斜向瞬移后段.png</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\水平瞬移前段.png</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\水平瞬移后段.png</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\移动.png</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中普攻1.png</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中普攻2循环.png</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中普攻2起手.png</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中普攻3.png</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中被击飞空中落地瞬间.png</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中被击飞被击飞.png</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\空中转身下劈.png</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\落地.png</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\被击飞落地瞬间后动作.png</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\起跳.png</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\跳劈地面起跳攻击.png</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\跳劈空中下劈下落过程.png</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\跳劈空中下劈落地.png</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\跳劈空中下劈起手.png</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\飞踢空中.png</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\飞踢落地.png</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
